--- a/Code/Results/Cases/Case_4_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.101376047227944</v>
+        <v>0.5727304149500867</v>
       </c>
       <c r="C2">
-        <v>0.1008397240167866</v>
+        <v>0.07761289738254362</v>
       </c>
       <c r="D2">
-        <v>0.193667830102271</v>
+        <v>0.07787587772119764</v>
       </c>
       <c r="E2">
-        <v>0.05920397161941082</v>
+        <v>0.08989345109232616</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008201964944639168</v>
+        <v>0.0024881659178312</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5682020495389324</v>
+        <v>1.095153994367458</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9874349412777974</v>
+        <v>0.3696633564866261</v>
       </c>
       <c r="L2">
-        <v>0.263813402698446</v>
+        <v>0.214151979812641</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.522958535400306</v>
+        <v>4.472142840385061</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9564365629886709</v>
+        <v>0.5327881316985952</v>
       </c>
       <c r="C3">
-        <v>0.09422731052146105</v>
+        <v>0.07526919031080581</v>
       </c>
       <c r="D3">
-        <v>0.1679739950902075</v>
+        <v>0.07073728468191121</v>
       </c>
       <c r="E3">
-        <v>0.05520074284041598</v>
+        <v>0.08938513881929566</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008246031779165231</v>
+        <v>0.002491019998685183</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5650157629615151</v>
+        <v>1.100956501799899</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8580956246602511</v>
+        <v>0.3321063022459043</v>
       </c>
       <c r="L3">
-        <v>0.232978746405692</v>
+        <v>0.2069025281903834</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.46385667034906</v>
+        <v>4.485218395355673</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8678213492277393</v>
+        <v>0.5084538199127167</v>
       </c>
       <c r="C4">
-        <v>0.09015798476445269</v>
+        <v>0.07381036626509285</v>
       </c>
       <c r="D4">
-        <v>0.1523517047479999</v>
+        <v>0.06638880891722465</v>
       </c>
       <c r="E4">
-        <v>0.05282283066233795</v>
+        <v>0.08911695983380064</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008273975249086606</v>
+        <v>0.002492866455910748</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5640879944497037</v>
+        <v>1.105031197411417</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7788925428913558</v>
+        <v>0.3091043750108327</v>
       </c>
       <c r="L4">
-        <v>0.2143069835832989</v>
+        <v>0.2025679952275539</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.432257925360204</v>
+        <v>4.495504722827405</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8317882652652315</v>
+        <v>0.4985858389825069</v>
       </c>
       <c r="C5">
-        <v>0.08849663135490005</v>
+        <v>0.07321092045347655</v>
       </c>
       <c r="D5">
-        <v>0.1460195118372098</v>
+        <v>0.06462548077870167</v>
       </c>
       <c r="E5">
-        <v>0.05187286444157913</v>
+        <v>0.08901873485859824</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008285589647524143</v>
+        <v>0.002493642620709251</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5639578221889607</v>
+        <v>1.10682039297318</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7466552890025184</v>
+        <v>0.2997459926357351</v>
       </c>
       <c r="L5">
-        <v>0.2067578182688266</v>
+        <v>0.2008310268254405</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.420504614288689</v>
+        <v>4.500264162182702</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8258092588833676</v>
+        <v>0.4969502112424493</v>
       </c>
       <c r="C6">
-        <v>0.08822055885678282</v>
+        <v>0.07311108347885664</v>
       </c>
       <c r="D6">
-        <v>0.1449699788090726</v>
+        <v>0.06433320756431726</v>
       </c>
       <c r="E6">
-        <v>0.05171624326485258</v>
+        <v>0.08900309310572752</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000828753205596442</v>
+        <v>0.002493772936698238</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5639508758760421</v>
+        <v>1.10712526199503</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7413042411730544</v>
+        <v>0.2981929647971242</v>
       </c>
       <c r="L6">
-        <v>0.2055077272264185</v>
+        <v>0.2005443811665799</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.418619259456023</v>
+        <v>4.501088747328083</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8673350987338608</v>
+        <v>0.5083205399478743</v>
       </c>
       <c r="C7">
-        <v>0.09013559254087511</v>
+        <v>0.07380230201050608</v>
       </c>
       <c r="D7">
-        <v>0.1522661748353471</v>
+        <v>0.06636499278894803</v>
       </c>
       <c r="E7">
-        <v>0.05280994333932654</v>
+        <v>0.08911559033606764</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008274130959188981</v>
+        <v>0.002492876827318294</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5640852489644743</v>
+        <v>1.105054805939496</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7784576422185694</v>
+        <v>0.3089781029089238</v>
       </c>
       <c r="L7">
-        <v>0.2142049385764153</v>
+        <v>0.2025444507974328</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.432094939099159</v>
+        <v>4.495566611910647</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.051311971502912</v>
+        <v>0.558919122507632</v>
       </c>
       <c r="C8">
-        <v>0.09856122802369072</v>
+        <v>0.07680889770454513</v>
       </c>
       <c r="D8">
-        <v>0.1847737788805404</v>
+        <v>0.07540729610471431</v>
       </c>
       <c r="E8">
-        <v>0.05780636439643061</v>
+        <v>0.08970907626408575</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008216977932372137</v>
+        <v>0.002489130529754434</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5668832757896993</v>
+        <v>1.097048442995174</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.942785687097512</v>
+        <v>0.3567018450827391</v>
       </c>
       <c r="L8">
-        <v>0.2531238414387929</v>
+        <v>0.2116281857538667</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.501572191982774</v>
+        <v>4.476182608521242</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.415914956482482</v>
+        <v>0.6596341010568665</v>
       </c>
       <c r="C9">
-        <v>0.1150468798755639</v>
+        <v>0.08254768830322945</v>
       </c>
       <c r="D9">
-        <v>0.2499672428226063</v>
+        <v>0.0934151888224477</v>
       </c>
       <c r="E9">
-        <v>0.0682920678096437</v>
+        <v>0.09122097426681108</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008111724625005962</v>
+        <v>0.002482526969898838</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5810470314388567</v>
+        <v>1.08541074324107</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.267431673130289</v>
+        <v>0.4507356643472349</v>
       </c>
       <c r="L9">
-        <v>0.3317973629329032</v>
+        <v>0.2303658104416826</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.677714902356882</v>
+        <v>4.456093704399052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.68737058261047</v>
+        <v>0.7345203339071986</v>
       </c>
       <c r="C10">
-        <v>0.1271925546819688</v>
+        <v>0.08666828313526764</v>
       </c>
       <c r="D10">
-        <v>0.2990839446817546</v>
+        <v>0.1068166363773173</v>
       </c>
       <c r="E10">
-        <v>0.07649303865486345</v>
+        <v>0.09254358144967156</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008038246065149328</v>
+        <v>0.002478123684613767</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5975073438617855</v>
+        <v>1.07933918677022</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.50850391915111</v>
+        <v>0.5200828564707649</v>
       </c>
       <c r="L10">
-        <v>0.3914593546250984</v>
+        <v>0.2446960477828242</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.835443535322753</v>
+        <v>4.452277173103852</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.811942521149717</v>
+        <v>0.7687781501575159</v>
       </c>
       <c r="C11">
-        <v>0.1327390604489977</v>
+        <v>0.0885221148368629</v>
       </c>
       <c r="D11">
-        <v>0.3217739017507881</v>
+        <v>0.1129511222191724</v>
       </c>
       <c r="E11">
-        <v>0.08035040724476161</v>
+        <v>0.09319119891983618</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008005581936230278</v>
+        <v>0.002476216902647413</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6064936627565771</v>
+        <v>1.077115772420065</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.618993046381235</v>
+        <v>0.5516851078120908</v>
       </c>
       <c r="L11">
-        <v>0.4191073275908082</v>
+        <v>0.2513377848951137</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.914306814573678</v>
+        <v>4.45292099780562</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.859297553271062</v>
+        <v>0.7817778045026671</v>
       </c>
       <c r="C12">
-        <v>0.1348436977624488</v>
+        <v>0.08922113882944416</v>
       </c>
       <c r="D12">
-        <v>0.3304230148999778</v>
+        <v>0.1152795934364832</v>
       </c>
       <c r="E12">
-        <v>0.0818309683900047</v>
+        <v>0.09344303284816036</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007993315979277724</v>
+        <v>0.002475508627789458</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6101286140517104</v>
+        <v>1.076351298516094</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.660974411358268</v>
+        <v>0.5636597521410636</v>
       </c>
       <c r="L12">
-        <v>0.4296589764346663</v>
+        <v>0.2538704744977451</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.945279672951727</v>
+        <v>4.453507265683442</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.849090249383806</v>
+        <v>0.7789769067306054</v>
       </c>
       <c r="C13">
-        <v>0.1343902147346938</v>
+        <v>0.08907072432511143</v>
       </c>
       <c r="D13">
-        <v>0.3285576235210357</v>
+        <v>0.11477787208797</v>
       </c>
       <c r="E13">
-        <v>0.08151119241010107</v>
+        <v>0.09338850279245747</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007995953184756178</v>
+        <v>0.00247566055557185</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.609335165359326</v>
+        <v>1.076512494858626</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.651926292062598</v>
+        <v>0.5610804696561615</v>
       </c>
       <c r="L13">
-        <v>0.4273826941623184</v>
+        <v>0.2533242322596294</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.938558340008285</v>
+        <v>4.453365767556562</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.815834635816827</v>
+        <v>0.7698471026100719</v>
       </c>
       <c r="C14">
-        <v>0.1329121167308216</v>
+        <v>0.08857968379429337</v>
       </c>
       <c r="D14">
-        <v>0.3224842862410355</v>
+        <v>0.1131425772544787</v>
       </c>
       <c r="E14">
-        <v>0.08047180607046656</v>
+        <v>0.09321178534632324</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008004570776690318</v>
+        <v>0.002476158356603485</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6067879628007873</v>
+        <v>1.077051325553342</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.622443903546667</v>
+        <v>0.5526701202595063</v>
       </c>
       <c r="L14">
-        <v>0.4199737214765236</v>
+        <v>0.2515457982278946</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.91683222425209</v>
+        <v>4.452962365602929</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.795489173794124</v>
+        <v>0.7642583274908645</v>
       </c>
       <c r="C15">
-        <v>0.1320073366571393</v>
+        <v>0.08827851859174984</v>
       </c>
       <c r="D15">
-        <v>0.3187718238158794</v>
+        <v>0.1121416247675313</v>
       </c>
       <c r="E15">
-        <v>0.07983778890522686</v>
+        <v>0.09310439930889558</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000800986255105098</v>
+        <v>0.002476465067012852</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6052584577289224</v>
+        <v>1.077391466902483</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.604404235722484</v>
+        <v>0.5475195085508915</v>
       </c>
       <c r="L15">
-        <v>0.4154464642893885</v>
+        <v>0.250458747425057</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.903671461295488</v>
+        <v>4.452759876086134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.679253552589643</v>
+        <v>0.7322853108473169</v>
       </c>
       <c r="C16">
-        <v>0.1268306095948475</v>
+        <v>0.08654671430106475</v>
       </c>
       <c r="D16">
-        <v>0.2976086695722842</v>
+        <v>0.1064164996273433</v>
       </c>
       <c r="E16">
-        <v>0.0762436376158746</v>
+        <v>0.09250218175887426</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008040395541404952</v>
+        <v>0.00247825022938034</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5969516054357769</v>
+        <v>1.07949533285452</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.50130170463936</v>
+        <v>0.5180186584584874</v>
       </c>
       <c r="L16">
-        <v>0.3896634586666323</v>
+        <v>0.2442644616873366</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.830439973194302</v>
+        <v>4.452283008388605</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.608242804192059</v>
+        <v>0.7127195684890353</v>
       </c>
       <c r="C17">
-        <v>0.1236611654944255</v>
+        <v>0.08547901100675404</v>
       </c>
       <c r="D17">
-        <v>0.2847193925104818</v>
+        <v>0.1029140763440921</v>
       </c>
       <c r="E17">
-        <v>0.07407232391962282</v>
+        <v>0.09214450200122926</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008059317280953993</v>
+        <v>0.002479369985887842</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5922507900986176</v>
+        <v>1.080923954565392</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.438278529565139</v>
+        <v>0.4999348117324871</v>
       </c>
       <c r="L17">
-        <v>0.3739825717016174</v>
+        <v>0.2404958902951506</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.78739569300194</v>
+        <v>4.452600197878212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.567499772461503</v>
+        <v>0.701483949902439</v>
       </c>
       <c r="C18">
-        <v>0.121840117721959</v>
+        <v>0.08486295361859675</v>
       </c>
       <c r="D18">
-        <v>0.2773379829210825</v>
+        <v>0.1009031615599554</v>
       </c>
       <c r="E18">
-        <v>0.07283526289872455</v>
+        <v>0.09194310053677412</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008070272654959038</v>
+        <v>0.002480023107493833</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5896869821049151</v>
+        <v>1.081796350099154</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.402105355010747</v>
+        <v>0.4895387480480338</v>
       </c>
       <c r="L18">
-        <v>0.3650105246811819</v>
+        <v>0.238339873396626</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.763301596281337</v>
+        <v>4.453006638673969</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.553721371517327</v>
+        <v>0.6976828859768602</v>
       </c>
       <c r="C19">
-        <v>0.1212238387217468</v>
+        <v>0.08465403390407289</v>
       </c>
       <c r="D19">
-        <v>0.2748440807763046</v>
+        <v>0.1002229164602682</v>
       </c>
       <c r="E19">
-        <v>0.07241839756582635</v>
+        <v>0.09187565294132227</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008073994522162709</v>
+        <v>0.00248024580261802</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.58884247800205</v>
+        <v>1.082100433111854</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.389870136432023</v>
+        <v>0.4860197420377403</v>
       </c>
       <c r="L19">
-        <v>0.3619805847057904</v>
+        <v>0.2376118712531792</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.755255239341039</v>
+        <v>4.453182718170808</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.615791437398428</v>
+        <v>0.7148005084369231</v>
       </c>
       <c r="C20">
-        <v>0.1239983497076196</v>
+        <v>0.08559287099966184</v>
       </c>
       <c r="D20">
-        <v>0.2860880997707795</v>
+        <v>0.1032865441273145</v>
       </c>
       <c r="E20">
-        <v>0.07430222902486605</v>
+        <v>0.09218212994475294</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008057295612675352</v>
+        <v>0.002479249847847379</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5927365969897593</v>
+        <v>1.080766628820271</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.44497941835678</v>
+        <v>0.5018593243942178</v>
       </c>
       <c r="L20">
-        <v>0.3756468825073398</v>
+        <v>0.2408958645564212</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.791908521266123</v>
+        <v>4.452543247517156</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.825597447193047</v>
+        <v>0.7725280204149954</v>
       </c>
       <c r="C21">
-        <v>0.1333461430573237</v>
+        <v>0.08872399532883435</v>
       </c>
       <c r="D21">
-        <v>0.3242665686988886</v>
+        <v>0.1136227544458421</v>
       </c>
       <c r="E21">
-        <v>0.08077654639230047</v>
+        <v>0.09326351265699273</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008002036831955856</v>
+        <v>0.002476011766779251</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6075297024495541</v>
+        <v>1.076890954684416</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.631099561874294</v>
+        <v>0.5551402424167975</v>
       </c>
       <c r="L21">
-        <v>0.4221476168196432</v>
+        <v>0.2520676899893601</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.923182889600838</v>
+        <v>4.453071558316736</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.96379436439554</v>
+        <v>0.8104131689062228</v>
       </c>
       <c r="C22">
-        <v>0.1394811562688147</v>
+        <v>0.09075297983991959</v>
       </c>
       <c r="D22">
-        <v>0.3495538553544009</v>
+        <v>0.1204099730264545</v>
       </c>
       <c r="E22">
-        <v>0.08512449205378658</v>
+        <v>0.09400869472696627</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007966520543642897</v>
+        <v>0.002473975796212133</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6185589165601968</v>
+        <v>1.074809637041383</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.753576839484708</v>
+        <v>0.5900062347294579</v>
       </c>
       <c r="L22">
-        <v>0.4530209526616886</v>
+        <v>0.2594717297842379</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.015487751527587</v>
+        <v>4.455413095566797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.889928329691685</v>
+        <v>0.7901789957709298</v>
       </c>
       <c r="C23">
-        <v>0.1362040000808094</v>
+        <v>0.08967166763281398</v>
       </c>
       <c r="D23">
-        <v>0.3360243764446267</v>
+        <v>0.1167845887102033</v>
       </c>
       <c r="E23">
-        <v>0.08279266865956458</v>
+        <v>0.093607464539879</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007985423683651938</v>
+        <v>0.002475055105703543</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6125420681310274</v>
+        <v>1.075879135482971</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.688123723800999</v>
+        <v>0.5713937444136548</v>
       </c>
       <c r="L23">
-        <v>0.4364959756248084</v>
+        <v>0.2555106846090638</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.965596941156576</v>
+        <v>4.453980640763945</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.612378446894553</v>
+        <v>0.7138596749886688</v>
       </c>
       <c r="C24">
-        <v>0.1238459053648029</v>
+        <v>0.08554140181287551</v>
       </c>
       <c r="D24">
-        <v>0.2854692180190028</v>
+        <v>0.1031181431109331</v>
       </c>
       <c r="E24">
-        <v>0.07419825398891078</v>
+        <v>0.09216510516427689</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008058209368647651</v>
+        <v>0.00247930413313981</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5925165327448383</v>
+        <v>1.080837596734547</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.441949762335895</v>
+        <v>0.5009892503770743</v>
       </c>
       <c r="L24">
-        <v>0.3748943140051324</v>
+        <v>0.2407150032190231</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.789866245251403</v>
+        <v>4.45256829676876</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.316747076590133</v>
+        <v>0.632230268845376</v>
       </c>
       <c r="C25">
-        <v>0.1105855122757902</v>
+        <v>0.08101200613673143</v>
       </c>
       <c r="D25">
-        <v>0.2321423844799995</v>
+        <v>0.08851374018803426</v>
       </c>
       <c r="E25">
-        <v>0.06537404870519481</v>
+        <v>0.09077474121965423</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008139498701449704</v>
+        <v>0.002484234345708825</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5762107224009227</v>
+        <v>1.088123908132964</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.179241540417024</v>
+        <v>0.4252503850117648</v>
       </c>
       <c r="L25">
-        <v>0.3102199255111771</v>
+        <v>0.2251978035643845</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.625396910546527</v>
+        <v>4.459607802651078</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5727304149500867</v>
+        <v>1.101376047227944</v>
       </c>
       <c r="C2">
-        <v>0.07761289738254362</v>
+        <v>0.1008397240169074</v>
       </c>
       <c r="D2">
-        <v>0.07787587772119764</v>
+        <v>0.1936678301021573</v>
       </c>
       <c r="E2">
-        <v>0.08989345109232616</v>
+        <v>0.05920397161940016</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0024881659178312</v>
+        <v>0.0008201964944609864</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.095153994367458</v>
+        <v>0.5682020495389182</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3696633564866261</v>
+        <v>0.9874349412778258</v>
       </c>
       <c r="L2">
-        <v>0.214151979812641</v>
+        <v>0.2638134026984034</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.472142840385061</v>
+        <v>2.52295853540025</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5327881316985952</v>
+        <v>0.9564365629887845</v>
       </c>
       <c r="C3">
-        <v>0.07526919031080581</v>
+        <v>0.094227310521795</v>
       </c>
       <c r="D3">
-        <v>0.07073728468191121</v>
+        <v>0.1679739950902501</v>
       </c>
       <c r="E3">
-        <v>0.08938513881929566</v>
+        <v>0.05520074284042664</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002491019998685183</v>
+        <v>0.0008246031779449714</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.100956501799899</v>
+        <v>0.5650157629615222</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3321063022459043</v>
+        <v>0.8580956246603364</v>
       </c>
       <c r="L3">
-        <v>0.2069025281903834</v>
+        <v>0.2329787464058626</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.485218395355673</v>
+        <v>2.46385667034906</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5084538199127167</v>
+        <v>0.8678213492277393</v>
       </c>
       <c r="C4">
-        <v>0.07381036626509285</v>
+        <v>0.09015798476411163</v>
       </c>
       <c r="D4">
-        <v>0.06638880891722465</v>
+        <v>0.152351704747943</v>
       </c>
       <c r="E4">
-        <v>0.08911695983380064</v>
+        <v>0.05282283066231663</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002492866455910748</v>
+        <v>0.0008273975249412666</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.105031197411417</v>
+        <v>0.5640879944497144</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3091043750108327</v>
+        <v>0.7788925428914126</v>
       </c>
       <c r="L4">
-        <v>0.2025679952275539</v>
+        <v>0.2143069835832705</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.495504722827405</v>
+        <v>2.432257925360318</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4985858389825069</v>
+        <v>0.8317882652652315</v>
       </c>
       <c r="C5">
-        <v>0.07321092045347655</v>
+        <v>0.08849663135465846</v>
       </c>
       <c r="D5">
-        <v>0.06462548077870167</v>
+        <v>0.1460195118371388</v>
       </c>
       <c r="E5">
-        <v>0.08901873485859824</v>
+        <v>0.05187286444161998</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002493642620709251</v>
+        <v>0.0008285589647383795</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.10682039297318</v>
+        <v>0.5639578221889607</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2997459926357351</v>
+        <v>0.7466552890024332</v>
       </c>
       <c r="L5">
-        <v>0.2008310268254405</v>
+        <v>0.2067578182688976</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.500264162182702</v>
+        <v>2.42050461428866</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4969502112424493</v>
+        <v>0.8258092588833676</v>
       </c>
       <c r="C6">
-        <v>0.07311108347885664</v>
+        <v>0.08822055885653413</v>
       </c>
       <c r="D6">
-        <v>0.06433320756431726</v>
+        <v>0.1449699788090442</v>
       </c>
       <c r="E6">
-        <v>0.08900309310572752</v>
+        <v>0.05171624326483482</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002493772936698238</v>
+        <v>0.0008287532055358479</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.10712526199503</v>
+        <v>0.5639508758760741</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2981929647971242</v>
+        <v>0.7413042411730828</v>
       </c>
       <c r="L6">
-        <v>0.2005443811665799</v>
+        <v>0.2055077272264043</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.501088747328083</v>
+        <v>2.418619259456051</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5083205399478743</v>
+        <v>0.8673350987336903</v>
       </c>
       <c r="C7">
-        <v>0.07380230201050608</v>
+        <v>0.09013559254063352</v>
       </c>
       <c r="D7">
-        <v>0.06636499278894803</v>
+        <v>0.1522661748353329</v>
       </c>
       <c r="E7">
-        <v>0.08911559033606764</v>
+        <v>0.05280994333933187</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002492876827318294</v>
+        <v>0.0008274130959751057</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.105054805939496</v>
+        <v>0.5640852489644672</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3089781029089238</v>
+        <v>0.7784576422185978</v>
       </c>
       <c r="L7">
-        <v>0.2025444507974328</v>
+        <v>0.2142049385763443</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.495566611910647</v>
+        <v>2.432094939099187</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.558919122507632</v>
+        <v>1.051311971502855</v>
       </c>
       <c r="C8">
-        <v>0.07680889770454513</v>
+        <v>0.09856122802369782</v>
       </c>
       <c r="D8">
-        <v>0.07540729610471431</v>
+        <v>0.184773778880583</v>
       </c>
       <c r="E8">
-        <v>0.08970907626408575</v>
+        <v>0.05780636439641285</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002489130529754434</v>
+        <v>0.0008216977932371865</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.097048442995174</v>
+        <v>0.5668832757896922</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3567018450827391</v>
+        <v>0.942785687097512</v>
       </c>
       <c r="L8">
-        <v>0.2116281857538667</v>
+        <v>0.2531238414388639</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.476182608521242</v>
+        <v>2.501572191982746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6596341010568665</v>
+        <v>1.415914956482368</v>
       </c>
       <c r="C9">
-        <v>0.08254768830322945</v>
+        <v>0.1150468798754432</v>
       </c>
       <c r="D9">
-        <v>0.0934151888224477</v>
+        <v>0.2499672428226063</v>
       </c>
       <c r="E9">
-        <v>0.09122097426681108</v>
+        <v>0.06829206780960817</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002482526969898838</v>
+        <v>0.0008111724624999222</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.08541074324107</v>
+        <v>0.5810470314388354</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4507356643472349</v>
+        <v>1.267431673130261</v>
       </c>
       <c r="L9">
-        <v>0.2303658104416826</v>
+        <v>0.3317973629329742</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.456093704399052</v>
+        <v>2.677714902356797</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7345203339071986</v>
+        <v>1.687370582610441</v>
       </c>
       <c r="C10">
-        <v>0.08666828313526764</v>
+        <v>0.1271925546817414</v>
       </c>
       <c r="D10">
-        <v>0.1068166363773173</v>
+        <v>0.2990839446817262</v>
       </c>
       <c r="E10">
-        <v>0.09254358144967156</v>
+        <v>0.07649303865484924</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002478123684613767</v>
+        <v>0.0008038246065181639</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.07933918677022</v>
+        <v>0.5975073438617784</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5200828564707649</v>
+        <v>1.508503919151167</v>
       </c>
       <c r="L10">
-        <v>0.2446960477828242</v>
+        <v>0.3914593546250984</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.452277173103852</v>
+        <v>2.835443535322725</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7687781501575159</v>
+        <v>1.811942521149632</v>
       </c>
       <c r="C11">
-        <v>0.0885221148368629</v>
+        <v>0.1327390604489977</v>
       </c>
       <c r="D11">
-        <v>0.1129511222191724</v>
+        <v>0.3217739017509018</v>
       </c>
       <c r="E11">
-        <v>0.09319119891983618</v>
+        <v>0.08035040724476517</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002476216902647413</v>
+        <v>0.0008005581935621619</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.077115772420065</v>
+        <v>0.60649366275657</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5516851078120908</v>
+        <v>1.618993046381235</v>
       </c>
       <c r="L11">
-        <v>0.2513377848951137</v>
+        <v>0.4191073275907797</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.45292099780562</v>
+        <v>2.914306814573621</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7817778045026671</v>
+        <v>1.859297553271034</v>
       </c>
       <c r="C12">
-        <v>0.08922113882944416</v>
+        <v>0.1348436977623209</v>
       </c>
       <c r="D12">
-        <v>0.1152795934364832</v>
+        <v>0.3304230148999494</v>
       </c>
       <c r="E12">
-        <v>0.09344303284816036</v>
+        <v>0.08183096838997628</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002475508627789458</v>
+        <v>0.0007993315978959137</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.076351298516094</v>
+        <v>0.6101286140517317</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5636597521410636</v>
+        <v>1.660974411358268</v>
       </c>
       <c r="L12">
-        <v>0.2538704744977451</v>
+        <v>0.4296589764346948</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.453507265683442</v>
+        <v>2.945279672951727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7789769067306054</v>
+        <v>1.849090249383892</v>
       </c>
       <c r="C13">
-        <v>0.08907072432511143</v>
+        <v>0.1343902147348075</v>
       </c>
       <c r="D13">
-        <v>0.11477787208797</v>
+        <v>0.3285576235211209</v>
       </c>
       <c r="E13">
-        <v>0.09338850279245747</v>
+        <v>0.08151119241012594</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00247566055557185</v>
+        <v>0.0007995953185386893</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.076512494858626</v>
+        <v>0.609335165359326</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5610804696561615</v>
+        <v>1.651926292062541</v>
       </c>
       <c r="L13">
-        <v>0.2533242322596294</v>
+        <v>0.4273826941623327</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.453365767556562</v>
+        <v>2.938558340008143</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7698471026100719</v>
+        <v>1.815834635817055</v>
       </c>
       <c r="C14">
-        <v>0.08857968379429337</v>
+        <v>0.1329121167308074</v>
       </c>
       <c r="D14">
-        <v>0.1131425772544787</v>
+        <v>0.322484286241135</v>
       </c>
       <c r="E14">
-        <v>0.09321178534632324</v>
+        <v>0.08047180607048432</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002476158356603485</v>
+        <v>0.0008004570776994514</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.077051325553342</v>
+        <v>0.6067879628007944</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5526701202595063</v>
+        <v>1.622443903546582</v>
       </c>
       <c r="L14">
-        <v>0.2515457982278946</v>
+        <v>0.4199737214765094</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.452962365602929</v>
+        <v>2.91683222425209</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7642583274908645</v>
+        <v>1.795489173794238</v>
       </c>
       <c r="C15">
-        <v>0.08827851859174984</v>
+        <v>0.1320073366571535</v>
       </c>
       <c r="D15">
-        <v>0.1121416247675313</v>
+        <v>0.31877182381578</v>
       </c>
       <c r="E15">
-        <v>0.09310439930889558</v>
+        <v>0.07983778890522331</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002476465067012852</v>
+        <v>0.0008009862550725159</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.077391466902483</v>
+        <v>0.6052584577289366</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5475195085508915</v>
+        <v>1.604404235722541</v>
       </c>
       <c r="L15">
-        <v>0.250458747425057</v>
+        <v>0.4154464642894169</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.452759876086134</v>
+        <v>2.903671461295517</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7322853108473169</v>
+        <v>1.679253552589927</v>
       </c>
       <c r="C16">
-        <v>0.08654671430106475</v>
+        <v>0.1268306095949754</v>
       </c>
       <c r="D16">
-        <v>0.1064164996273433</v>
+        <v>0.2976086695725684</v>
       </c>
       <c r="E16">
-        <v>0.09250218175887426</v>
+        <v>0.0762436376158675</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00247825022938034</v>
+        <v>0.0008040395541705876</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.07949533285452</v>
+        <v>0.5969516054357697</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5180186584584874</v>
+        <v>1.50130170463936</v>
       </c>
       <c r="L16">
-        <v>0.2442644616873366</v>
+        <v>0.3896634586666607</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.452283008388605</v>
+        <v>2.830439973194302</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7127195684890353</v>
+        <v>1.608242804191946</v>
       </c>
       <c r="C17">
-        <v>0.08547901100675404</v>
+        <v>0.1236611654941981</v>
       </c>
       <c r="D17">
-        <v>0.1029140763440921</v>
+        <v>0.2847193925105955</v>
       </c>
       <c r="E17">
-        <v>0.09214450200122926</v>
+        <v>0.07407232391961571</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002479369985887842</v>
+        <v>0.000805931728122868</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.080923954565392</v>
+        <v>0.5922507900986318</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4999348117324871</v>
+        <v>1.438278529565167</v>
       </c>
       <c r="L17">
-        <v>0.2404958902951506</v>
+        <v>0.3739825717017027</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.452600197878212</v>
+        <v>2.787395693001997</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.701483949902439</v>
+        <v>1.567499772461673</v>
       </c>
       <c r="C18">
-        <v>0.08486295361859675</v>
+        <v>0.1218401177218311</v>
       </c>
       <c r="D18">
-        <v>0.1009031615599554</v>
+        <v>0.2773379829211393</v>
       </c>
       <c r="E18">
-        <v>0.09194310053677412</v>
+        <v>0.07283526289875653</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002480023107493833</v>
+        <v>0.0008070272654344915</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.081796350099154</v>
+        <v>0.5896869821049009</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4895387480480338</v>
+        <v>1.402105355010747</v>
       </c>
       <c r="L18">
-        <v>0.238339873396626</v>
+        <v>0.365010524681125</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.453006638673969</v>
+        <v>2.763301596281309</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6976828859768602</v>
+        <v>1.55372137151744</v>
       </c>
       <c r="C19">
-        <v>0.08465403390407289</v>
+        <v>0.1212238387218605</v>
       </c>
       <c r="D19">
-        <v>0.1002229164602682</v>
+        <v>0.2748440807762478</v>
       </c>
       <c r="E19">
-        <v>0.09187565294132227</v>
+        <v>0.07241839756583701</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00248024580261802</v>
+        <v>0.0008073994522153914</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.082100433111854</v>
+        <v>0.5888424780020358</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4860197420377403</v>
+        <v>1.389870136431995</v>
       </c>
       <c r="L19">
-        <v>0.2376118712531792</v>
+        <v>0.3619805847057904</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.453182718170808</v>
+        <v>2.755255239340897</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7148005084369231</v>
+        <v>1.615791437398315</v>
       </c>
       <c r="C20">
-        <v>0.08559287099966184</v>
+        <v>0.1239983497073922</v>
       </c>
       <c r="D20">
-        <v>0.1032865441273145</v>
+        <v>0.2860880997709074</v>
       </c>
       <c r="E20">
-        <v>0.09218212994475294</v>
+        <v>0.0743022290248625</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002479249847847379</v>
+        <v>0.0008057295613268557</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.080766628820271</v>
+        <v>0.5927365969897735</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5018593243942178</v>
+        <v>1.444979418356809</v>
       </c>
       <c r="L20">
-        <v>0.2408958645564212</v>
+        <v>0.375646882507283</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.452543247517156</v>
+        <v>2.791908521266123</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7725280204149954</v>
+        <v>1.825597447193104</v>
       </c>
       <c r="C21">
-        <v>0.08872399532883435</v>
+        <v>0.1333461430573095</v>
       </c>
       <c r="D21">
-        <v>0.1136227544458421</v>
+        <v>0.3242665686990875</v>
       </c>
       <c r="E21">
-        <v>0.09326351265699273</v>
+        <v>0.08077654639229337</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002476011766779251</v>
+        <v>0.0008002036831649389</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.076890954684416</v>
+        <v>0.6075297024495612</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5551402424167975</v>
+        <v>1.631099561874379</v>
       </c>
       <c r="L21">
-        <v>0.2520676899893601</v>
+        <v>0.4221476168196006</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.453071558316736</v>
+        <v>2.923182889600923</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8104131689062228</v>
+        <v>1.963794364395625</v>
       </c>
       <c r="C22">
-        <v>0.09075297983991959</v>
+        <v>0.1394811562690563</v>
       </c>
       <c r="D22">
-        <v>0.1204099730264545</v>
+        <v>0.3495538553545146</v>
       </c>
       <c r="E22">
-        <v>0.09400869472696627</v>
+        <v>0.08512449205378658</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002473975796212133</v>
+        <v>0.000796652054366989</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.074809637041383</v>
+        <v>0.6185589165602039</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5900062347294579</v>
+        <v>1.753576839484623</v>
       </c>
       <c r="L22">
-        <v>0.2594717297842379</v>
+        <v>0.453020952661717</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.455413095566797</v>
+        <v>3.015487751527559</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7901789957709298</v>
+        <v>1.889928329691799</v>
       </c>
       <c r="C23">
-        <v>0.08967166763281398</v>
+        <v>0.1362040000806815</v>
       </c>
       <c r="D23">
-        <v>0.1167845887102033</v>
+        <v>0.3360243764447119</v>
       </c>
       <c r="E23">
-        <v>0.093607464539879</v>
+        <v>0.08279266865953261</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002475055105703543</v>
+        <v>0.0007985423683351087</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.075879135482971</v>
+        <v>0.6125420681310132</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5713937444136548</v>
+        <v>1.688123723801056</v>
       </c>
       <c r="L23">
-        <v>0.2555106846090638</v>
+        <v>0.4364959756248652</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.453980640763945</v>
+        <v>2.965596941156633</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7138596749886688</v>
+        <v>1.612378446894496</v>
       </c>
       <c r="C24">
-        <v>0.08554140181287551</v>
+        <v>0.1238459053650161</v>
       </c>
       <c r="D24">
-        <v>0.1031181431109331</v>
+        <v>0.2854692180191307</v>
       </c>
       <c r="E24">
-        <v>0.09216510516427689</v>
+        <v>0.07419825398891433</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00247930413313981</v>
+        <v>0.0008058209368941167</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.080837596734547</v>
+        <v>0.5925165327448596</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5009892503770743</v>
+        <v>1.441949762336037</v>
       </c>
       <c r="L24">
-        <v>0.2407150032190231</v>
+        <v>0.3748943140051466</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.45256829676876</v>
+        <v>2.789866245251488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.632230268845376</v>
+        <v>1.316747076590332</v>
       </c>
       <c r="C25">
-        <v>0.08101200613673143</v>
+        <v>0.1105855122755415</v>
       </c>
       <c r="D25">
-        <v>0.08851374018803426</v>
+        <v>0.2321423844800137</v>
       </c>
       <c r="E25">
-        <v>0.09077474121965423</v>
+        <v>0.06537404870518415</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002484234345708825</v>
+        <v>0.0008139498701435271</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.088123908132964</v>
+        <v>0.5762107224009156</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4252503850117648</v>
+        <v>1.179241540416996</v>
       </c>
       <c r="L25">
-        <v>0.2251978035643845</v>
+        <v>0.3102199255112907</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.459607802651078</v>
+        <v>2.625396910546471</v>
       </c>
     </row>
   </sheetData>
